--- a/Docu/Data Model.xlsx
+++ b/Docu/Data Model.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="279">
   <si>
     <t xml:space="preserve">GROUP</t>
   </si>
@@ -595,7 +595,7 @@
     <t xml:space="preserve">Du kannst zwei Apps sehen: eine App für den uGrow Smart Baby Monitor und die App "uGrow - Gesunde Entwicklung deines Babys". Die zweite ist die, die du brauchst. Wenn du auch die uGrow Smart Baby Monitor App nutzen willst, lade bitte beide Apps herunter.</t>
   </si>
   <si>
-    <t xml:space="preserve">Macht komische Geräusche</t>
+    <t xml:space="preserve">Macht Geräusche</t>
   </si>
   <si>
     <t xml:space="preserve">Ist das normal?</t>
@@ -622,7 +622,7 @@
     <t xml:space="preserve">Nach BDA Anweisung</t>
   </si>
   <si>
-    <t xml:space="preserve">Keine Verbindung möglich</t>
+    <t xml:space="preserve">Keine Verbindung zur App</t>
   </si>
   <si>
     <t xml:space="preserve">Kunde kann sein Handy nicht mit der Babyeinheit (Kamera) verbinden</t>
@@ -631,6 +631,21 @@
     <t xml:space="preserve">Kompatibilität Handy/App prüfen, App neuinstallieren</t>
   </si>
   <si>
+    <t xml:space="preserve">Keine Verbindung Eltern- zu Babystation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entfernung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entfernung der Stationen pruefen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storgeraete?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geraete entfernen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerät ist laut.</t>
   </si>
   <si>
@@ -763,13 +778,16 @@
     <t xml:space="preserve">Ja, meistens. Wenn nicht dann im Handouts die Bürstenköpfe Kompatibilität aufsuchen und vergleichen.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kunde will eine UV-Station kaufen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Das Gerät startet nicht mehr</t>
   </si>
   <si>
     <t xml:space="preserve">Laden Sie das Gerät mindestens 24 Stunden auf</t>
   </si>
   <si>
-    <t xml:space="preserve">Kunde will eine UV-Station kaufen</t>
+    <t xml:space="preserve">Kompatibilität der Geräte mit Nachfüllstation</t>
   </si>
   <si>
     <t xml:space="preserve">Passen alle BK in die UV-Reinigungsstation</t>
@@ -778,13 +796,13 @@
     <t xml:space="preserve">Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Kompatibilität der Geräte mit Nachfüllstation</t>
+    <t xml:space="preserve">Entspricht nicht der Beschreibung</t>
   </si>
   <si>
     <t xml:space="preserve">Ist meine alte Nachfüllstation kompatibel</t>
   </si>
   <si>
-    <t xml:space="preserve">Entspricht nicht der Beschreibung</t>
+    <t xml:space="preserve">Gefaellt dem Kunden nicht</t>
   </si>
   <si>
     <t xml:space="preserve">Umtausch</t>
@@ -793,9 +811,6 @@
     <t xml:space="preserve">Umtausch/Rueckerstattung aufgesetzt</t>
   </si>
   <si>
-    <t xml:space="preserve">Gefaellt dem Kunden nicht</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ist zu gross oder zu klein</t>
   </si>
   <si>
@@ -812,6 +827,36 @@
   </si>
   <si>
     <t xml:space="preserve">Sonstige Gruende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kunde sucht Ersatzteile fuer das Geraet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips Online Shop und Servicepartner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reparatur in Garantie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Geraet ist defekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutschein anbieten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reparatur ausserhalb der Garantie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkstattaufttrag aufsetzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesundheit / Umgebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H &amp; S Fall aufsetzen</t>
   </si>
 </sst>
 </file>
@@ -1082,30 +1127,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N125" activeCellId="0" sqref="N125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="25" min="17" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="12.8542510121458"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4369,10 +4413,10 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I73" s="8" t="n">
-        <v>15001</v>
+        <v>900000</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="8" t="n">
@@ -4410,27 +4454,25 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="6" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I74" s="8" t="n">
-        <v>55</v>
+        <v>900001</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="8" t="n">
-        <v>55</v>
+        <v>15002</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>203</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="O74" s="12"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
@@ -4451,27 +4493,25 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="6" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I75" s="8" t="n">
-        <v>56</v>
+        <v>900002</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="8" t="n">
-        <v>56</v>
+        <v>15003</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O75" s="12"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -4492,23 +4532,23 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="6" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I76" s="8" t="n">
-        <v>57</v>
+        <v>15001</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="8" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>44</v>
@@ -4533,23 +4573,27 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="6" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I77" s="8" t="n">
-        <v>58</v>
+        <v>15002</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="8" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="N77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -4570,24 +4614,26 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="6" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I78" s="8" t="n">
-        <v>59</v>
+        <v>15003</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="8" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O78" s="2" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -4609,27 +4655,23 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="6" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I79" s="8" t="n">
-        <v>60</v>
+        <v>900000</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="8" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -4650,26 +4692,24 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="6" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I80" s="8" t="n">
-        <v>61</v>
+        <v>900001</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="8" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -4691,26 +4731,26 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="8" t="n">
-        <v>62</v>
+        <v>900002</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="8" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -4732,26 +4772,26 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I82" s="8" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="8" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N82" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="O82" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -4773,23 +4813,23 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I83" s="8" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="8" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>44</v>
@@ -4814,23 +4854,23 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I84" s="8" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="8" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>44</v>
@@ -4855,17 +4895,17 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="6" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I85" s="8" t="n">
-        <v>16001</v>
+        <v>58</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="8" t="n">
-        <v>16001</v>
+        <v>64</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>225</v>
@@ -4873,8 +4913,8 @@
       <c r="N85" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="12" t="s">
-        <v>32</v>
+      <c r="O85" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -4896,26 +4936,26 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="6" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I86" s="8" t="n">
-        <v>17001</v>
+        <v>59</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="8" t="n">
-        <v>17001</v>
+        <v>65</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>227</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O86" s="12" t="s">
-        <v>32</v>
+        <v>229</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -4937,25 +4977,25 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="6" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I87" s="8" t="n">
-        <v>18001</v>
+        <v>60</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="8" t="n">
-        <v>18001</v>
+        <v>16001</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>230</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O87" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O87" s="12" t="s">
         <v>32</v>
       </c>
       <c r="P87" s="2"/>
@@ -4978,24 +5018,26 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I88" s="8" t="n">
-        <v>19001</v>
+        <v>61</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="8" t="n">
-        <v>19001</v>
+        <v>17001</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2" t="s">
+      <c r="N88" s="2" t="s">
         <v>233</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -5017,14 +5059,14 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="8" t="n">
-        <v>20001</v>
+        <v>62</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="8" t="n">
-        <v>20001</v>
+        <v>18001</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>234</v>
@@ -5033,10 +5075,10 @@
         <v>235</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -5058,14 +5100,14 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I90" s="8" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="8" t="n">
-        <v>66</v>
+        <v>19001</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>236</v>
@@ -5073,11 +5115,9 @@
       <c r="M90" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N90" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -5099,26 +5139,26 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I91" s="8" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="8" t="n">
-        <v>67</v>
+        <v>20001</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>240</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -5140,26 +5180,26 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I92" s="8" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="8" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>241</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>242</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -5181,26 +5221,26 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I93" s="8" t="n">
-        <v>69</v>
+        <v>16001</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M93" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="N93" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N93" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="O93" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -5222,26 +5262,26 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I94" s="8" t="n">
-        <v>70</v>
+        <v>17001</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="8" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="M94" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="O94" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -5263,14 +5303,14 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I95" s="8" t="n">
-        <v>71</v>
+        <v>18001</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="8" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>249</v>
@@ -5279,10 +5319,10 @@
         <v>250</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -5304,14 +5344,14 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I96" s="8" t="n">
-        <v>72</v>
+        <v>19001</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>252</v>
@@ -5320,10 +5360,10 @@
         <v>253</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -5345,26 +5385,26 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="6" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I97" s="8" t="n">
-        <v>9001</v>
+        <v>20001</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="8" t="n">
-        <v>9001</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="M97" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L97" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="M97" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="O97" s="9" t="s">
-        <v>32</v>
+      <c r="N97" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -5386,23 +5426,27 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="6" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I98" s="8" t="n">
-        <v>9002</v>
+        <v>68</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="8" t="n">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="L98" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M98" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
@@ -5423,23 +5467,27 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="6" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I99" s="8" t="n">
-        <v>9003</v>
+        <v>69</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="8" t="n">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
@@ -5460,20 +5508,20 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I100" s="8" t="n">
-        <v>9004</v>
+        <v>66</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="8" t="n">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -5497,20 +5545,20 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I101" s="8" t="n">
-        <v>9005</v>
+        <v>67</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="8" t="n">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -5534,20 +5582,20 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I102" s="8" t="n">
-        <v>9006</v>
+        <v>68</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="8" t="n">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="L102" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="M102" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -5571,20 +5619,20 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I103" s="8" t="n">
-        <v>9007</v>
+        <v>69</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="8" t="n">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -5608,20 +5656,20 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I104" s="8" t="n">
-        <v>9008</v>
+        <v>71</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="8" t="n">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -5644,16 +5692,22 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="6" t="n">
+        <v>21</v>
+      </c>
       <c r="I105" s="8" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+        <v>9008</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -5675,16 +5729,20 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="6"/>
+      <c r="H106" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I106" s="8" t="n">
-        <v>82</v>
+        <v>9001</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="M106" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -5706,13 +5764,15 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I107" s="8" t="n">
-        <v>83</v>
+        <v>9002</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="8" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5737,13 +5797,15 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="6"/>
+      <c r="H108" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I108" s="8" t="n">
-        <v>84</v>
+        <v>9003</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="8" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5768,13 +5830,15 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="6"/>
+      <c r="H109" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I109" s="8" t="n">
-        <v>85</v>
+        <v>9004</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -5799,13 +5863,15 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I110" s="8" t="n">
-        <v>86</v>
+        <v>9005</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -5830,13 +5896,15 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="6"/>
+      <c r="H111" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I111" s="8" t="n">
-        <v>87</v>
+        <v>9006</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -5861,13 +5929,15 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="6"/>
+      <c r="H112" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I112" s="8" t="n">
-        <v>88</v>
+        <v>9007</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -5892,13 +5962,15 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="6" t="n">
+        <v>34</v>
+      </c>
       <c r="I113" s="8" t="n">
-        <v>89</v>
+        <v>9008</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -5923,13 +5995,15 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="6" t="n">
+        <v>32</v>
+      </c>
       <c r="I114" s="8" t="n">
-        <v>90</v>
+        <v>900000</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -5956,11 +6030,11 @@
       <c r="G115" s="2"/>
       <c r="H115" s="6"/>
       <c r="I115" s="8" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="8" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -5987,11 +6061,11 @@
       <c r="G116" s="2"/>
       <c r="H116" s="6"/>
       <c r="I116" s="8" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -6018,11 +6092,11 @@
       <c r="G117" s="2"/>
       <c r="H117" s="6"/>
       <c r="I117" s="8" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -6049,11 +6123,11 @@
       <c r="G118" s="2"/>
       <c r="H118" s="6"/>
       <c r="I118" s="8" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -6080,11 +6154,11 @@
       <c r="G119" s="2"/>
       <c r="H119" s="6"/>
       <c r="I119" s="8" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="8" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -6111,11 +6185,11 @@
       <c r="G120" s="2"/>
       <c r="H120" s="6"/>
       <c r="I120" s="8" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -6142,11 +6216,11 @@
       <c r="G121" s="2"/>
       <c r="H121" s="6"/>
       <c r="I121" s="8" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -6162,6 +6236,116 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H122" s="6"/>
+      <c r="I122" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="K122" s="8" t="n">
+        <v>97</v>
+      </c>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H123" s="6"/>
+      <c r="I123" s="8" t="n">
+        <v>90</v>
+      </c>
+      <c r="K123" s="8" t="n">
+        <v>900000</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="6"/>
+      <c r="I124" s="8" t="n">
+        <v>91</v>
+      </c>
+      <c r="K124" s="8" t="n">
+        <v>900001</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="6"/>
+      <c r="I125" s="8" t="n">
+        <v>92</v>
+      </c>
+      <c r="K125" s="8" t="n">
+        <v>900002</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="6"/>
+      <c r="I126" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="K126" s="8" t="n">
+        <v>999999</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="6"/>
+      <c r="I127" s="8" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="6"/>
+      <c r="I128" s="8" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="6"/>
+      <c r="I129" s="8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="6"/>
+      <c r="I130" s="8" t="n">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Docu/Data Model.xlsx
+++ b/Docu/Data Model.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="282">
   <si>
     <t xml:space="preserve">GROUP</t>
   </si>
@@ -827,6 +827,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sonstige Gruende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemeine Informationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kunde wuenscht eine Auskunft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die gewuenschte Auskunft weitergegeben</t>
   </si>
   <si>
     <t xml:space="preserve">Der Kunde sucht Ersatzteile fuer das Geraet</t>
@@ -1127,29 +1136,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y130"/>
+  <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N125" activeCellId="0" sqref="N125"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F88" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K107" activeCellId="0" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.7408906882591"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="25" min="17" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5730,20 +5740,24 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I106" s="8" t="n">
-        <v>9001</v>
+        <v>3300</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>3300</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -5768,7 +5782,7 @@
         <v>34</v>
       </c>
       <c r="I107" s="8" t="n">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="8" t="n">
@@ -5801,7 +5815,7 @@
         <v>34</v>
       </c>
       <c r="I108" s="8" t="n">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="8" t="n">
@@ -5834,7 +5848,7 @@
         <v>34</v>
       </c>
       <c r="I109" s="8" t="n">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="8" t="n">
@@ -5867,7 +5881,7 @@
         <v>34</v>
       </c>
       <c r="I110" s="8" t="n">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="8" t="n">
@@ -5900,7 +5914,7 @@
         <v>34</v>
       </c>
       <c r="I111" s="8" t="n">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="8" t="n">
@@ -5933,7 +5947,7 @@
         <v>34</v>
       </c>
       <c r="I112" s="8" t="n">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="8" t="n">
@@ -5966,7 +5980,7 @@
         <v>34</v>
       </c>
       <c r="I113" s="8" t="n">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="8" t="n">
@@ -5996,10 +6010,10 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I114" s="8" t="n">
-        <v>900000</v>
+        <v>9008</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="8" t="n">
@@ -6028,9 +6042,11 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="6" t="n">
+        <v>32</v>
+      </c>
       <c r="I115" s="8" t="n">
-        <v>82</v>
+        <v>900000</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="8" t="n">
@@ -6061,7 +6077,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="6"/>
       <c r="I116" s="8" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="8" t="n">
@@ -6092,7 +6108,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="6"/>
       <c r="I117" s="8" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="8" t="n">
@@ -6123,7 +6139,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="6"/>
       <c r="I118" s="8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="8" t="n">
@@ -6154,7 +6170,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="6"/>
       <c r="I119" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="8" t="n">
@@ -6185,7 +6201,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="6"/>
       <c r="I120" s="8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="8" t="n">
@@ -6216,7 +6232,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="6"/>
       <c r="I121" s="8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="8" t="n">
@@ -6240,7 +6256,7 @@
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="6"/>
       <c r="I122" s="8" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K122" s="8" t="n">
         <v>97</v>
@@ -6253,7 +6269,7 @@
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="6"/>
       <c r="I123" s="8" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K123" s="8" t="n">
         <v>900000</v>
@@ -6262,88 +6278,94 @@
         <v>45</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="6"/>
       <c r="I124" s="8" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K124" s="8" t="n">
         <v>900001</v>
       </c>
       <c r="L124" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="6"/>
       <c r="I125" s="8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K125" s="8" t="n">
         <v>900002</v>
       </c>
       <c r="L125" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="6"/>
       <c r="I126" s="8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K126" s="8" t="n">
         <v>999999</v>
       </c>
       <c r="L126" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="6"/>
       <c r="I127" s="8" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="6"/>
       <c r="I128" s="8" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="6"/>
       <c r="I129" s="8" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="6"/>
       <c r="I130" s="8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="6"/>
+      <c r="I131" s="8" t="n">
         <v>97</v>
       </c>
     </row>
